--- a/data/insert data.xlsx
+++ b/data/insert data.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="lt_city" sheetId="1" r:id="rId1"/>
     <sheet name="lt_user_type" sheetId="2" r:id="rId2"/>
     <sheet name="ms_account" sheetId="3" r:id="rId3"/>
     <sheet name="ms_profile" sheetId="4" r:id="rId4"/>
+    <sheet name="lt_class_category" sheetId="5" r:id="rId5"/>
+    <sheet name="ms_class" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="119">
   <si>
     <t>Jakarta</t>
   </si>
@@ -248,6 +250,132 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>class_category_name</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>INSERT INTO `lt_class_category`(`class_category_name`, `parent_id`, `user_input`, `input_date`, `status_record`)</t>
+  </si>
+  <si>
+    <t>class_name</t>
+  </si>
+  <si>
+    <t>class_category_id</t>
+  </si>
+  <si>
+    <t>max_capacity</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>lecturer_id</t>
+  </si>
+  <si>
+    <t>front_image</t>
+  </si>
+  <si>
+    <t>Kalkulus</t>
+  </si>
+  <si>
+    <t>Aljabar Linear</t>
+  </si>
+  <si>
+    <t>Mekanika 1</t>
+  </si>
+  <si>
+    <t>Mekanika 2</t>
+  </si>
+  <si>
+    <t>deskripsi dari kelas Kalkulus</t>
+  </si>
+  <si>
+    <t>deskripsi dari kelas Aljabar Linear</t>
+  </si>
+  <si>
+    <t>deskripsi dari kelas Mekanika 1</t>
+  </si>
+  <si>
+    <t>deskripsi dari kelas Mekanika 2</t>
+  </si>
+  <si>
+    <t>kalkulus.jpg</t>
+  </si>
+  <si>
+    <t>aljabarlinear.jpg</t>
+  </si>
+  <si>
+    <t>mekanika1.jpg</t>
+  </si>
+  <si>
+    <t>mekanika2.jpg</t>
+  </si>
+  <si>
+    <t>INSERT INTO `ms_class`(`class_name`, `class_category_id`, `max_capacity`, `description`, `date_start`, `date_end`, `lecturer_id`, `front_image`, `user_input`, `input_date`, `status_record`)</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Budiono</t>
+  </si>
+  <si>
+    <t>Hermawan</t>
+  </si>
+  <si>
+    <t>1993-05-14 00:00:00</t>
+  </si>
+  <si>
+    <t>08126072607</t>
+  </si>
+  <si>
+    <t>Jln Badak No 16</t>
+  </si>
+  <si>
+    <t>caladbolg_student@hotmail.com</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Ongko</t>
+  </si>
+  <si>
+    <t>1993-05-07 00:00:00</t>
+  </si>
+  <si>
+    <t>08197255755</t>
+  </si>
+  <si>
+    <t>Jln Garuda No. 10</t>
+  </si>
+  <si>
+    <t>Andrew.Ongko@gmail.com</t>
+  </si>
+  <si>
+    <t>DeimonDB</t>
+  </si>
+  <si>
+    <t>aongko</t>
+  </si>
+  <si>
+    <t>03de6c570bfe24bfc328ccd7ca46b76eadaf4334</t>
   </si>
 </sst>
 </file>
@@ -605,9 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -876,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H12" si="0">"SELECT '"&amp;A3&amp;"', SHA1('"&amp;B3&amp;"'), '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"' UNION"</f>
+        <f t="shared" ref="H3:H14" si="0">"SELECT '"&amp;A3&amp;"', SHA1('"&amp;B3&amp;"'), '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"' UNION"</f>
         <v>SELECT 'student1', SHA1('test'), '2', '1', 'ADMIN', 'NOW()', 'A' UNION</v>
       </c>
     </row>
@@ -1208,6 +1334,60 @@
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'lecturer5', SHA1('test'), '11', '2', 'ADMIN', 'NOW()', 'A' UNION</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="str">
+        <f>"SELECT '"&amp;A13&amp;"', '"&amp;B13&amp;"', '"&amp;C13&amp;"', '"&amp;D13&amp;"', '"&amp;E13&amp;"', '"&amp;F13&amp;"', '"&amp;G13&amp;"' UNION"</f>
+        <v>SELECT 'DeimonDB', '03de6c570bfe24bfc328ccd7ca46b76eadaf4334', '12', '3', 'ADMIN', 'NOW()', 'A' UNION</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT 'aongko', SHA1('aongko'), '13', '3', 'ADMIN', 'NOW()', 'A' UNION</v>
       </c>
     </row>
   </sheetData>
@@ -1217,9 +1397,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1379,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O12" si="0">"SELECT '"&amp;A3&amp;"', "&amp;IF(B3="NULL", B3, "'"&amp;B3&amp;"'")&amp;", "&amp;IF(C3="NULL", C3, "'"&amp;C3&amp;"'")&amp;", '"&amp;D3&amp;"', '"&amp;E3&amp;"', "&amp;IF(F3="NULL", F3, "'"&amp;F3&amp;"'")&amp;", '"&amp;G3&amp;"', '"&amp;H3&amp;"', "&amp;IF(I3="NULL", I3, "'"&amp;I3&amp;"'")&amp;", '"&amp;J3&amp;"', "&amp;IF(K3="NULL", K3, "'"&amp;K3&amp;"'")&amp;", '"&amp;L3&amp;"', "&amp;M3&amp;", '"&amp;N3&amp;"' UNION"</f>
+        <f t="shared" ref="O3:O14" si="0">"SELECT '"&amp;A3&amp;"', "&amp;IF(B3="NULL", B3, "'"&amp;B3&amp;"'")&amp;", "&amp;IF(C3="NULL", C3, "'"&amp;C3&amp;"'")&amp;", '"&amp;D3&amp;"', '"&amp;E3&amp;"', "&amp;IF(F3="NULL", F3, "'"&amp;F3&amp;"'")&amp;", '"&amp;G3&amp;"', '"&amp;H3&amp;"', "&amp;IF(I3="NULL", I3, "'"&amp;I3&amp;"'")&amp;", '"&amp;J3&amp;"', "&amp;IF(K3="NULL", K3, "'"&amp;K3&amp;"'")&amp;", '"&amp;L3&amp;"', "&amp;M3&amp;", '"&amp;N3&amp;"' UNION"</f>
         <v>SELECT 'Student', NULL, '1', 'NOW()', '1000000001', NULL, 'Binus Kemanggisan', 'student1@email.com', NULL, '1', NULL, 'ADMIN', NOW(), 'A' UNION</v>
       </c>
     </row>
@@ -1813,6 +1993,102 @@
       <c r="O12" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'Lecturer', NULL, '5', 'NOW()', '2000000005', NULL, 'Binus Kemanggisan', 'lecturer5@shamir.com', NULL, '1', NULL, 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="str">
+        <f>"SELECT '"&amp;A13&amp;"', "&amp;IF(B13="NULL", B13, "'"&amp;B13&amp;"'")&amp;", "&amp;IF(C13="NULL", C13, "'"&amp;C13&amp;"'")&amp;", '"&amp;D13&amp;"', '"&amp;E13&amp;"', "&amp;IF(F13="NULL", F13, "'"&amp;F13&amp;"'")&amp;", '"&amp;G13&amp;"', '"&amp;H13&amp;"', "&amp;IF(I13="NULL", I13, "'"&amp;I13&amp;"'")&amp;", '"&amp;J13&amp;"', "&amp;IF(K13="NULL", K13, "'"&amp;K13&amp;"'")&amp;", '"&amp;L13&amp;"', "&amp;M13&amp;", '"&amp;N13&amp;"' UNION"</f>
+        <v>SELECT 'Teddy', 'Budiono', 'Hermawan', '1993-05-14 00:00:00', '08126072607', NULL, 'Jln Badak No 16', 'caladbolg_student@hotmail.com', NULL, '7', NULL, 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT 'Andrew', NULL, 'Ongko', '1993-05-07 00:00:00', '08197255755', NULL, 'Jln Garuda No. 10', 'Andrew.Ongko@gmail.com', NULL, '7', NULL, 'ADMIN', NOW(), 'A' UNION</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +2104,292 @@
     <hyperlink ref="H10" r:id="rId9"/>
     <hyperlink ref="H12" r:id="rId10"/>
     <hyperlink ref="H11" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"SELECT '"&amp;A2&amp;"', "&amp;B2&amp;", '"&amp;C2&amp;"', "&amp;D2&amp;", '"&amp;E2&amp;"' UNION"</f>
+        <v>SELECT 'Mathematics', NULL, 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"SELECT '"&amp;A3&amp;"', "&amp;B3&amp;", '"&amp;C3&amp;"', "&amp;D3&amp;", '"&amp;E3&amp;"' UNION"</f>
+        <v>SELECT 'Physics', NULL, 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"SELECT '"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', "&amp;E2&amp;", "&amp;F2&amp;", '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', "&amp;J2&amp;", '"&amp;K2&amp;"' UNION"</f>
+        <v>SELECT 'Kalkulus', '1', '300', 'deskripsi dari kelas Kalkulus', NULL, NULL, '7', 'kalkulus.jpg', 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L5" si="0">"SELECT '"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', "&amp;E3&amp;", "&amp;F3&amp;", '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', "&amp;J3&amp;", '"&amp;K3&amp;"' UNION"</f>
+        <v>SELECT 'Aljabar Linear', '1', '300', 'deskripsi dari kelas Aljabar Linear', NULL, NULL, '8', 'aljabarlinear.jpg', 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT 'Mekanika 1', '2', '300', 'deskripsi dari kelas Mekanika 1', NULL, NULL, '9', 'mekanika1.jpg', 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>SELECT 'Mekanika 2', '2', '300', 'deskripsi dari kelas Mekanika 2', NULL, NULL, '10', 'mekanika2.jpg', 'ADMIN', NOW(), 'A' UNION</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>